--- a/Process_PO_NonPO_Invoices/Data/Input/Tracker Template/Template.xlsx
+++ b/Process_PO_NonPO_Invoices/Data/Input/Tracker Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa.uat\Documents\UiPath\SH-Cogent\Process_PO_NonPO_Invoices\Data\Input\Tracker Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E110221-2EC8-49D7-A8D5-0FB2C70DDF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA67F809-20CA-49F1-B495-17E34D655AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO Inv" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>PO number</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Vendor Number</t>
+  </si>
+  <si>
+    <t>Tax Amount</t>
   </si>
 </sst>
 </file>
@@ -409,26 +412,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,21 +441,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -467,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DD1EB9-9F23-48C6-BE96-1D5917C9BA66}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
